--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H2">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I2">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J2">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>216.8621727850355</v>
+        <v>159.8608161356267</v>
       </c>
       <c r="R2">
-        <v>1951.75955506532</v>
+        <v>1438.74734522064</v>
       </c>
       <c r="S2">
-        <v>0.001160627776374151</v>
+        <v>0.001274095645463647</v>
       </c>
       <c r="T2">
-        <v>0.001160627776374151</v>
+        <v>0.001274095645463647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H3">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I3">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J3">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>228.58076344103</v>
+        <v>172.966597845405</v>
       </c>
       <c r="R3">
-        <v>2057.22687096927</v>
+        <v>1556.699380608645</v>
       </c>
       <c r="S3">
-        <v>0.001223344669968995</v>
+        <v>0.00137854913075462</v>
       </c>
       <c r="T3">
-        <v>0.001223344669968995</v>
+        <v>0.00137854913075462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H4">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I4">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J4">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>147.6835401385789</v>
+        <v>74.56363259056832</v>
       </c>
       <c r="R4">
-        <v>1329.15186124721</v>
+        <v>671.0726933151149</v>
       </c>
       <c r="S4">
-        <v>0.0007903896590024818</v>
+        <v>0.0005942744563057586</v>
       </c>
       <c r="T4">
-        <v>0.0007903896590024817</v>
+        <v>0.0005942744563057587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H5">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I5">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J5">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>79.12752261858887</v>
+        <v>58.55276489623166</v>
       </c>
       <c r="R5">
-        <v>712.1477035672998</v>
+        <v>526.9748840660849</v>
       </c>
       <c r="S5">
-        <v>0.0004234837244660558</v>
+        <v>0.0004666673459295549</v>
       </c>
       <c r="T5">
-        <v>0.0004234837244660557</v>
+        <v>0.0004666673459295549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.324656666666667</v>
+        <v>1.002365</v>
       </c>
       <c r="H6">
-        <v>3.97397</v>
+        <v>3.007095</v>
       </c>
       <c r="I6">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="J6">
-        <v>0.004214330013715658</v>
+        <v>0.00427078073065012</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>115.1894710177322</v>
+        <v>69.91116580084</v>
       </c>
       <c r="R6">
-        <v>1036.70523915959</v>
+        <v>629.2004922075599</v>
       </c>
       <c r="S6">
-        <v>0.0006164841839039743</v>
+        <v>0.0005571941521965389</v>
       </c>
       <c r="T6">
-        <v>0.0006164841839039741</v>
+        <v>0.000557194152196539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.454391</v>
       </c>
       <c r="I7">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J7">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>79.367079353644</v>
+        <v>77.317188928288</v>
       </c>
       <c r="R7">
-        <v>714.3037141827959</v>
+        <v>695.8547003545921</v>
       </c>
       <c r="S7">
-        <v>0.0004247658115961063</v>
+        <v>0.0006162203854223159</v>
       </c>
       <c r="T7">
-        <v>0.0004247658115961061</v>
+        <v>0.000616220385422316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.454391</v>
       </c>
       <c r="I8">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J8">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>83.65584167010898</v>
@@ -948,10 +948,10 @@
         <v>752.902575030981</v>
       </c>
       <c r="S8">
-        <v>0.0004477189002183905</v>
+        <v>0.0006667396436851323</v>
       </c>
       <c r="T8">
-        <v>0.0004477189002183903</v>
+        <v>0.0006667396436851324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.454391</v>
       </c>
       <c r="I9">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J9">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>54.049127604307</v>
+        <v>36.06293654408299</v>
       </c>
       <c r="R9">
-        <v>486.442148438763</v>
+        <v>324.566428896747</v>
       </c>
       <c r="S9">
-        <v>0.0002892663020974689</v>
+        <v>0.0002874227188635505</v>
       </c>
       <c r="T9">
-        <v>0.0002892663020974689</v>
+        <v>0.0002874227188635506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.454391</v>
       </c>
       <c r="I10">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J10">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>28.95904014090999</v>
+        <v>28.319229784957</v>
       </c>
       <c r="R10">
-        <v>260.6313612681899</v>
+        <v>254.873068064613</v>
       </c>
       <c r="S10">
-        <v>0.0001549863027425752</v>
+        <v>0.000225705136656418</v>
       </c>
       <c r="T10">
-        <v>0.0001549863027425751</v>
+        <v>0.000225705136656418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.454391</v>
       </c>
       <c r="I11">
-        <v>0.001542357804155021</v>
+        <v>0.00206557659722455</v>
       </c>
       <c r="J11">
-        <v>0.001542357804155021</v>
+        <v>0.002065576597224551</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>42.156968961253</v>
+        <v>33.812756278152</v>
       </c>
       <c r="R11">
-        <v>379.412720651277</v>
+        <v>304.314806503368</v>
       </c>
       <c r="S11">
-        <v>0.0002256204875004807</v>
+        <v>0.0002694887125971332</v>
       </c>
       <c r="T11">
-        <v>0.0002256204875004806</v>
+        <v>0.0002694887125971333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H12">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I12">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J12">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>22773.44270690362</v>
+        <v>21675.96684981908</v>
       </c>
       <c r="R12">
-        <v>204960.9843621326</v>
+        <v>195083.7016483717</v>
       </c>
       <c r="S12">
-        <v>0.1218815150187482</v>
+        <v>0.1727581257381937</v>
       </c>
       <c r="T12">
-        <v>0.1218815150187482</v>
+        <v>0.1727581257381937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H13">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I13">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J13">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>24004.05222023024</v>
+        <v>23453.01576492723</v>
       </c>
       <c r="R13">
-        <v>216036.4699820721</v>
+        <v>211077.1418843451</v>
       </c>
       <c r="S13">
-        <v>0.1284676317430002</v>
+        <v>0.1869212605153507</v>
       </c>
       <c r="T13">
-        <v>0.1284676317430002</v>
+        <v>0.1869212605153507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H14">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I14">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J14">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>15508.75653834041</v>
+        <v>10110.28760708955</v>
       </c>
       <c r="R14">
-        <v>139578.8088450637</v>
+        <v>90992.58846380601</v>
       </c>
       <c r="S14">
-        <v>0.08300153680219967</v>
+        <v>0.08057930470997454</v>
       </c>
       <c r="T14">
-        <v>0.08300153680219965</v>
+        <v>0.08057930470997457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H15">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I15">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J15">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>8309.453325822256</v>
+        <v>7939.330109382044</v>
       </c>
       <c r="R15">
-        <v>74785.07993240029</v>
+        <v>71453.97098443841</v>
       </c>
       <c r="S15">
-        <v>0.04447148256691899</v>
+        <v>0.06327670635485855</v>
       </c>
       <c r="T15">
-        <v>0.04447148256691898</v>
+        <v>0.06327670635485858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>139.106753</v>
+        <v>135.9134216666667</v>
       </c>
       <c r="H16">
-        <v>417.320259</v>
+        <v>407.740265</v>
       </c>
       <c r="I16">
-        <v>0.4425612908087611</v>
+        <v>0.5790868818152315</v>
       </c>
       <c r="J16">
-        <v>0.442561290808761</v>
+        <v>0.5790868818152316</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>12096.44256982136</v>
+        <v>9479.446864862413</v>
       </c>
       <c r="R16">
-        <v>108867.9831283923</v>
+        <v>85315.02178376172</v>
       </c>
       <c r="S16">
-        <v>0.06473912467789394</v>
+        <v>0.07555148449685398</v>
       </c>
       <c r="T16">
-        <v>0.06473912467789393</v>
+        <v>0.075551484496854</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H17">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I17">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J17">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>11.81285658437378</v>
+        <v>10.57036283760356</v>
       </c>
       <c r="R17">
-        <v>106.315709259364</v>
+        <v>95.13326553843201</v>
       </c>
       <c r="S17">
-        <v>6.322139677046788E-05</v>
+        <v>8.424611851684424E-05</v>
       </c>
       <c r="T17">
-        <v>6.322139677046785E-05</v>
+        <v>8.424611851684425E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H18">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I18">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J18">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>12.451188429031</v>
+        <v>11.436947103164</v>
       </c>
       <c r="R18">
-        <v>112.060695861279</v>
+        <v>102.932523928476</v>
       </c>
       <c r="S18">
-        <v>6.663769413546617E-05</v>
+        <v>9.115282189712186E-05</v>
       </c>
       <c r="T18">
-        <v>6.663769413546614E-05</v>
+        <v>9.115282189712188E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H19">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I19">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J19">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>8.044577148357444</v>
+        <v>4.930317947979111</v>
       </c>
       <c r="R19">
-        <v>72.401194335217</v>
+        <v>44.37286153181201</v>
       </c>
       <c r="S19">
-        <v>4.305388794948333E-05</v>
+        <v>3.929478642810147E-05</v>
       </c>
       <c r="T19">
-        <v>4.305388794948332E-05</v>
+        <v>3.929478642810149E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H20">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I20">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J20">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>4.310212632134444</v>
+        <v>3.871642751860889</v>
       </c>
       <c r="R20">
-        <v>38.79191368920999</v>
+        <v>34.844784766748</v>
       </c>
       <c r="S20">
-        <v>2.306788887471286E-05</v>
+        <v>3.085711239427054E-05</v>
       </c>
       <c r="T20">
-        <v>2.306788887471285E-05</v>
+        <v>3.085711239427055E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.07215633333333334</v>
+        <v>0.06627866666666667</v>
       </c>
       <c r="H21">
-        <v>0.216469</v>
+        <v>0.198836</v>
       </c>
       <c r="I21">
-        <v>0.0002295618245077379</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="J21">
-        <v>0.0002295618245077378</v>
+        <v>0.0002823937911371431</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>6.274569159238111</v>
+        <v>4.622686201525333</v>
       </c>
       <c r="R21">
-        <v>56.47112243314299</v>
+        <v>41.60417581372801</v>
       </c>
       <c r="S21">
-        <v>3.358095677760764E-05</v>
+        <v>3.684295190080493E-05</v>
       </c>
       <c r="T21">
-        <v>3.358095677760763E-05</v>
+        <v>3.684295190080495E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H22">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I22">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J22">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>28376.79492973056</v>
+        <v>15507.5710546823</v>
       </c>
       <c r="R22">
-        <v>255391.154367575</v>
+        <v>139568.1394921407</v>
       </c>
       <c r="S22">
-        <v>0.1518701762366144</v>
+        <v>0.1235958206026293</v>
       </c>
       <c r="T22">
-        <v>0.1518701762366144</v>
+        <v>0.1235958206026293</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H23">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I23">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J23">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>29910.19303065357</v>
+        <v>16778.91975666262</v>
       </c>
       <c r="R23">
-        <v>269191.7372758821</v>
+        <v>151010.2778099636</v>
       </c>
       <c r="S23">
-        <v>0.160076791550456</v>
+        <v>0.1337285090513403</v>
       </c>
       <c r="T23">
-        <v>0.1600767915504559</v>
+        <v>0.1337285090513403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H24">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I24">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J24">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>19324.64974960478</v>
+        <v>7233.172321054913</v>
       </c>
       <c r="R24">
-        <v>173921.847746443</v>
+        <v>65098.55088949422</v>
       </c>
       <c r="S24">
-        <v>0.1034238704706032</v>
+        <v>0.05764860695647617</v>
       </c>
       <c r="T24">
-        <v>0.1034238704706032</v>
+        <v>0.05764860695647619</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H25">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I25">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J25">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>10353.9748486752</v>
+        <v>5680.010799557406</v>
       </c>
       <c r="R25">
-        <v>93185.77363807679</v>
+        <v>51120.09719601665</v>
       </c>
       <c r="S25">
-        <v>0.05541358666162465</v>
+        <v>0.04526986162614595</v>
       </c>
       <c r="T25">
-        <v>0.05541358666162464</v>
+        <v>0.04526986162614596</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>173.3336436666667</v>
+        <v>97.236126</v>
       </c>
       <c r="H26">
-        <v>520.000931</v>
+        <v>291.708378</v>
       </c>
       <c r="I26">
-        <v>0.5514524595488606</v>
+        <v>0.4142943670657566</v>
       </c>
       <c r="J26">
-        <v>0.5514524595488605</v>
+        <v>0.4142943670657567</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>15072.7439237383</v>
+        <v>6781.851846999216</v>
       </c>
       <c r="R26">
-        <v>135654.6953136447</v>
+        <v>61036.66662299295</v>
       </c>
       <c r="S26">
-        <v>0.08066803462956236</v>
+        <v>0.05405156882916486</v>
       </c>
       <c r="T26">
-        <v>0.08066803462956233</v>
+        <v>0.05405156882916488</v>
       </c>
     </row>
   </sheetData>
